--- a/src/test/resources/testdata/seller2.xlsx
+++ b/src/test/resources/testdata/seller2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="213">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -624,7 +624,40 @@
     <t>B0C8WKM5J9</t>
   </si>
   <si>
+    <t>30/10--0:29</t>
+  </si>
+  <si>
     <t>AOTJI2Q86QKVW</t>
+  </si>
+  <si>
+    <t>30/10--15:13</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>B000WG9JJU</t>
+  </si>
+  <si>
+    <t>B0BXM3JYKS</t>
+  </si>
+  <si>
+    <t>B0BWLDV74L</t>
   </si>
 </sst>
 </file>
@@ -641,13 +674,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0F1111"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0F1111"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -658,18 +691,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -684,15 +727,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -702,7 +738,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,1627 +1143,5568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="5" customWidth="1"/>
+    <col min="3" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D3">
+        <v>22.99</v>
+      </c>
+      <c r="E3">
+        <v>22.99</v>
+      </c>
+      <c r="F3">
+        <v>22.99</v>
+      </c>
+      <c r="G3">
+        <v>22.99</v>
+      </c>
+      <c r="H3">
+        <v>22.99</v>
+      </c>
+      <c r="I3" s="53">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J3">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="8">
+        <v>21.06</v>
+      </c>
+      <c r="D4" s="9">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="E4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="G4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="H4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="I4" s="54">
+        <v>21.06</v>
+      </c>
+      <c r="J4" s="98">
+        <v>19.739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="8">
+        <v>21.42</v>
+      </c>
+      <c r="D5">
+        <v>21.42</v>
+      </c>
+      <c r="E5">
+        <v>21.42</v>
+      </c>
+      <c r="F5">
+        <v>21.42</v>
+      </c>
+      <c r="G5">
+        <v>21.42</v>
+      </c>
+      <c r="H5">
+        <v>21.42</v>
+      </c>
+      <c r="I5">
+        <v>21.42</v>
+      </c>
+      <c r="J5">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="8">
+        <v>20.14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>20.13</v>
+      </c>
+      <c r="E8">
+        <v>20.13</v>
+      </c>
+      <c r="F8">
+        <v>20.13</v>
+      </c>
+      <c r="G8">
+        <v>20.13</v>
+      </c>
+      <c r="H8">
+        <v>20.13</v>
+      </c>
+      <c r="I8">
+        <v>20.13</v>
+      </c>
+      <c r="J8">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D9">
+        <v>22.99</v>
+      </c>
+      <c r="E9">
+        <v>22.99</v>
+      </c>
+      <c r="F9">
+        <v>22.99</v>
+      </c>
+      <c r="G9">
+        <v>22.99</v>
+      </c>
+      <c r="H9">
+        <v>22.99</v>
+      </c>
+      <c r="I9" s="55">
+        <v>20.89</v>
+      </c>
+      <c r="J9">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D11">
+        <v>22.99</v>
+      </c>
+      <c r="E11">
+        <v>22.99</v>
+      </c>
+      <c r="F11">
+        <v>22.99</v>
+      </c>
+      <c r="G11">
+        <v>22.99</v>
+      </c>
+      <c r="H11">
+        <v>22.99</v>
+      </c>
+      <c r="I11" s="56">
+        <v>18.3</v>
+      </c>
+      <c r="J11">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="8">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="G12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I12">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="J12">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="8">
+        <v>30.99</v>
+      </c>
+      <c r="D13">
+        <v>30.99</v>
+      </c>
+      <c r="E13">
+        <v>30.99</v>
+      </c>
+      <c r="F13">
+        <v>30.99</v>
+      </c>
+      <c r="G13">
+        <v>30.99</v>
+      </c>
+      <c r="H13">
+        <v>30.99</v>
+      </c>
+      <c r="I13" s="57">
+        <v>22.97</v>
+      </c>
+      <c r="J13" s="99">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="8">
+        <v>22.49</v>
+      </c>
+      <c r="D14">
+        <v>22.49</v>
+      </c>
+      <c r="E14">
+        <v>22.49</v>
+      </c>
+      <c r="F14">
+        <v>22.49</v>
+      </c>
+      <c r="G14">
+        <v>22.49</v>
+      </c>
+      <c r="H14">
+        <v>22.49</v>
+      </c>
+      <c r="I14">
+        <v>22.49</v>
+      </c>
+      <c r="J14">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D17">
+        <v>22.99</v>
+      </c>
+      <c r="E17">
+        <v>22.99</v>
+      </c>
+      <c r="F17">
+        <v>22.99</v>
+      </c>
+      <c r="G17">
+        <v>22.99</v>
+      </c>
+      <c r="H17">
+        <v>22.99</v>
+      </c>
+      <c r="I17">
+        <v>22.99</v>
+      </c>
+      <c r="J17">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="8">
+        <v>30.79</v>
+      </c>
+      <c r="D18">
+        <v>30.79</v>
+      </c>
+      <c r="E18">
+        <v>30.79</v>
+      </c>
+      <c r="F18">
+        <v>30.79</v>
+      </c>
+      <c r="G18">
+        <v>30.79</v>
+      </c>
+      <c r="H18">
+        <v>30.79</v>
+      </c>
+      <c r="I18" s="58">
+        <v>30.06</v>
+      </c>
+      <c r="J18">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="8">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="D19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="E19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="F19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="G19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="H19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="I19">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J19">
+        <v>32.729999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="8">
+        <v>33.32</v>
+      </c>
+      <c r="D20" s="11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E20">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F20">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G20">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H20">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I20">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J20" s="100">
+        <v>33.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="8">
+        <v>19.98</v>
+      </c>
+      <c r="D21">
+        <v>19.98</v>
+      </c>
+      <c r="E21">
+        <v>19.98</v>
+      </c>
+      <c r="F21">
+        <v>19.98</v>
+      </c>
+      <c r="G21">
+        <v>19.98</v>
+      </c>
+      <c r="H21">
+        <v>19.98</v>
+      </c>
+      <c r="I21">
+        <v>19.98</v>
+      </c>
+      <c r="J21">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="8">
+        <v>30.9</v>
+      </c>
+      <c r="D22" s="12">
+        <v>30.5</v>
+      </c>
+      <c r="E22">
+        <v>30.5</v>
+      </c>
+      <c r="F22">
+        <v>30.5</v>
+      </c>
+      <c r="G22">
+        <v>30.5</v>
+      </c>
+      <c r="H22">
+        <v>30.5</v>
+      </c>
+      <c r="I22">
+        <v>30.5</v>
+      </c>
+      <c r="J22">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="8">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="D23" s="13">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="E23">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="F23">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="G23">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="H23">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="I23">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="J23">
+        <v>36.880000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D24">
+        <v>22.99</v>
+      </c>
+      <c r="E24">
+        <v>22.99</v>
+      </c>
+      <c r="F24">
+        <v>22.99</v>
+      </c>
+      <c r="G24">
+        <v>22.99</v>
+      </c>
+      <c r="H24">
+        <v>22.99</v>
+      </c>
+      <c r="I24">
+        <v>22.99</v>
+      </c>
+      <c r="J24">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="8">
+        <v>20.95</v>
+      </c>
+      <c r="D25">
+        <v>20.95</v>
+      </c>
+      <c r="E25">
+        <v>20.95</v>
+      </c>
+      <c r="F25">
+        <v>20.95</v>
+      </c>
+      <c r="G25">
+        <v>20.95</v>
+      </c>
+      <c r="H25">
+        <v>20.95</v>
+      </c>
+      <c r="I25" s="59">
+        <v>20.2</v>
+      </c>
+      <c r="J25">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="8">
+        <v>32.96</v>
+      </c>
+      <c r="D26">
+        <v>32.96</v>
+      </c>
+      <c r="E26">
+        <v>32.96</v>
+      </c>
+      <c r="F26">
+        <v>32.96</v>
+      </c>
+      <c r="G26">
+        <v>32.96</v>
+      </c>
+      <c r="H26">
+        <v>32.96</v>
+      </c>
+      <c r="I26">
+        <v>32.96</v>
+      </c>
+      <c r="J26">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="8">
+        <v>30.9</v>
+      </c>
+      <c r="D27" s="14">
+        <v>30.8</v>
+      </c>
+      <c r="E27">
+        <v>30.8</v>
+      </c>
+      <c r="F27" s="40">
+        <v>31.47</v>
+      </c>
+      <c r="G27">
+        <v>31.47</v>
+      </c>
+      <c r="H27" s="49">
+        <v>35.99</v>
+      </c>
+      <c r="I27">
+        <v>35.99</v>
+      </c>
+      <c r="J27">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="8">
+        <v>21.8</v>
+      </c>
+      <c r="D28">
+        <v>21.8</v>
+      </c>
+      <c r="E28">
+        <v>21.8</v>
+      </c>
+      <c r="F28">
+        <v>21.8</v>
+      </c>
+      <c r="G28">
+        <v>21.8</v>
+      </c>
+      <c r="H28">
+        <v>21.8</v>
+      </c>
+      <c r="I28">
+        <v>21.8</v>
+      </c>
+      <c r="J28">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="8">
+        <v>21.69</v>
+      </c>
+      <c r="D29">
+        <v>21.69</v>
+      </c>
+      <c r="E29">
+        <v>21.69</v>
+      </c>
+      <c r="F29">
+        <v>21.69</v>
+      </c>
+      <c r="G29">
+        <v>21.69</v>
+      </c>
+      <c r="H29">
+        <v>21.69</v>
+      </c>
+      <c r="I29" s="60">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="8">
+        <v>31.99</v>
+      </c>
+      <c r="D30">
+        <v>31.99</v>
+      </c>
+      <c r="E30">
+        <v>31.99</v>
+      </c>
+      <c r="F30">
+        <v>31.99</v>
+      </c>
+      <c r="G30" s="46">
+        <v>31.98</v>
+      </c>
+      <c r="H30">
+        <v>31.98</v>
+      </c>
+      <c r="I30">
+        <v>31.98</v>
+      </c>
+      <c r="J30">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="8">
+        <v>19.84</v>
+      </c>
+      <c r="D31">
+        <v>19.84</v>
+      </c>
+      <c r="E31">
+        <v>19.84</v>
+      </c>
+      <c r="F31">
+        <v>19.84</v>
+      </c>
+      <c r="G31">
+        <v>19.84</v>
+      </c>
+      <c r="H31">
+        <v>19.84</v>
+      </c>
+      <c r="I31">
+        <v>19.84</v>
+      </c>
+      <c r="J31">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="D32">
+        <v>33.5</v>
+      </c>
+      <c r="E32">
+        <v>33.5</v>
+      </c>
+      <c r="F32">
+        <v>33.5</v>
+      </c>
+      <c r="G32">
+        <v>33.5</v>
+      </c>
+      <c r="H32">
+        <v>33.5</v>
+      </c>
+      <c r="I32">
+        <v>33.5</v>
+      </c>
+      <c r="J32">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="8">
+        <v>21.79</v>
+      </c>
+      <c r="D34">
+        <v>21.79</v>
+      </c>
+      <c r="E34">
+        <v>21.79</v>
+      </c>
+      <c r="F34">
+        <v>21.79</v>
+      </c>
+      <c r="G34">
+        <v>21.79</v>
+      </c>
+      <c r="H34">
+        <v>21.79</v>
+      </c>
+      <c r="I34">
+        <v>21.79</v>
+      </c>
+      <c r="J34">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="8">
+        <v>21.85</v>
+      </c>
+      <c r="D35">
+        <v>21.85</v>
+      </c>
+      <c r="E35">
+        <v>21.85</v>
+      </c>
+      <c r="F35">
+        <v>21.85</v>
+      </c>
+      <c r="G35">
+        <v>21.85</v>
+      </c>
+      <c r="H35">
+        <v>21.85</v>
+      </c>
+      <c r="I35">
+        <v>21.85</v>
+      </c>
+      <c r="J35">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="8">
+        <v>22.39</v>
+      </c>
+      <c r="D36">
+        <v>22.39</v>
+      </c>
+      <c r="E36">
+        <v>22.39</v>
+      </c>
+      <c r="F36">
+        <v>22.39</v>
+      </c>
+      <c r="G36">
+        <v>22.39</v>
+      </c>
+      <c r="H36">
+        <v>22.39</v>
+      </c>
+      <c r="I36">
+        <v>22.39</v>
+      </c>
+      <c r="J36" s="101">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="8">
+        <v>20.74</v>
+      </c>
+      <c r="D37">
+        <v>20.74</v>
+      </c>
+      <c r="E37">
+        <v>20.74</v>
+      </c>
+      <c r="F37">
+        <v>20.74</v>
+      </c>
+      <c r="G37">
+        <v>20.74</v>
+      </c>
+      <c r="H37">
+        <v>20.74</v>
+      </c>
+      <c r="I37" s="61">
+        <v>20.49</v>
+      </c>
+      <c r="J37">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="8">
+        <v>31.99</v>
+      </c>
+      <c r="D38">
+        <v>31.99</v>
+      </c>
+      <c r="E38">
+        <v>31.99</v>
+      </c>
+      <c r="F38">
+        <v>31.99</v>
+      </c>
+      <c r="G38">
+        <v>31.99</v>
+      </c>
+      <c r="H38">
+        <v>31.99</v>
+      </c>
+      <c r="I38">
+        <v>31.99</v>
+      </c>
+      <c r="J38">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="8">
+        <v>32.47</v>
+      </c>
+      <c r="D39">
+        <v>32.47</v>
+      </c>
+      <c r="E39">
+        <v>32.47</v>
+      </c>
+      <c r="F39">
+        <v>32.47</v>
+      </c>
+      <c r="G39">
+        <v>32.47</v>
+      </c>
+      <c r="H39">
+        <v>32.47</v>
+      </c>
+      <c r="I39">
+        <v>32.47</v>
+      </c>
+      <c r="J39">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="8">
+        <v>30.29</v>
+      </c>
+      <c r="D40">
+        <v>30.29</v>
+      </c>
+      <c r="E40">
+        <v>30.29</v>
+      </c>
+      <c r="F40">
+        <v>30.29</v>
+      </c>
+      <c r="G40">
+        <v>30.29</v>
+      </c>
+      <c r="H40">
+        <v>30.29</v>
+      </c>
+      <c r="I40">
+        <v>30.29</v>
+      </c>
+      <c r="J40">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="8">
+        <v>30.78</v>
+      </c>
+      <c r="D41">
+        <v>30.78</v>
+      </c>
+      <c r="E41">
+        <v>30.78</v>
+      </c>
+      <c r="F41">
+        <v>30.78</v>
+      </c>
+      <c r="G41">
+        <v>30.78</v>
+      </c>
+      <c r="H41">
+        <v>30.78</v>
+      </c>
+      <c r="I41">
+        <v>30.78</v>
+      </c>
+      <c r="J41">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="8">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>32</v>
+      </c>
+      <c r="G42" s="47">
+        <v>35.99</v>
+      </c>
+      <c r="H42">
+        <v>35.99</v>
+      </c>
+      <c r="I42">
+        <v>35.99</v>
+      </c>
+      <c r="J42">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="8">
+        <v>31.47</v>
+      </c>
+      <c r="D44">
+        <v>31.47</v>
+      </c>
+      <c r="E44">
+        <v>31.47</v>
+      </c>
+      <c r="F44">
+        <v>31.47</v>
+      </c>
+      <c r="G44">
+        <v>31.47</v>
+      </c>
+      <c r="H44">
+        <v>31.47</v>
+      </c>
+      <c r="I44" s="62">
+        <v>31.44</v>
+      </c>
+      <c r="J44">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H46">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I46" s="63">
+        <v>31.98</v>
+      </c>
+      <c r="J46">
+        <v>31.98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="8">
+        <v>31</v>
+      </c>
+      <c r="D47" s="15">
+        <v>30.93</v>
+      </c>
+      <c r="E47">
+        <v>30.93</v>
+      </c>
+      <c r="F47">
+        <v>30.93</v>
+      </c>
+      <c r="G47">
+        <v>30.93</v>
+      </c>
+      <c r="H47">
+        <v>30.93</v>
+      </c>
+      <c r="I47">
+        <v>30.93</v>
+      </c>
+      <c r="J47">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="8">
+        <v>22.39</v>
+      </c>
+      <c r="D48">
+        <v>22.39</v>
+      </c>
+      <c r="E48">
+        <v>22.39</v>
+      </c>
+      <c r="F48">
+        <v>22.39</v>
+      </c>
+      <c r="G48">
+        <v>22.39</v>
+      </c>
+      <c r="H48">
+        <v>22.39</v>
+      </c>
+      <c r="I48" s="64">
+        <v>19.79</v>
+      </c>
+      <c r="J48">
+        <v>19.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="8">
+        <v>20.94</v>
+      </c>
+      <c r="D49">
+        <v>20.94</v>
+      </c>
+      <c r="E49">
+        <v>20.94</v>
+      </c>
+      <c r="F49">
+        <v>20.94</v>
+      </c>
+      <c r="G49">
+        <v>20.94</v>
+      </c>
+      <c r="H49">
+        <v>20.94</v>
+      </c>
+      <c r="I49" s="65">
+        <v>19.32</v>
+      </c>
+      <c r="J49">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="8">
+        <v>32.32</v>
+      </c>
+      <c r="D52">
+        <v>32.32</v>
+      </c>
+      <c r="E52">
+        <v>32.32</v>
+      </c>
+      <c r="F52">
+        <v>32.32</v>
+      </c>
+      <c r="G52">
+        <v>32.32</v>
+      </c>
+      <c r="H52">
+        <v>32.32</v>
+      </c>
+      <c r="I52">
+        <v>32.32</v>
+      </c>
+      <c r="J52">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="8">
+        <v>31.02</v>
+      </c>
+      <c r="D53">
+        <v>31.02</v>
+      </c>
+      <c r="E53">
+        <v>31.02</v>
+      </c>
+      <c r="F53">
+        <v>31.02</v>
+      </c>
+      <c r="G53">
+        <v>31.02</v>
+      </c>
+      <c r="H53">
+        <v>31.02</v>
+      </c>
+      <c r="I53">
+        <v>31.02</v>
+      </c>
+      <c r="J53">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="8">
+        <v>24.15</v>
+      </c>
+      <c r="D54">
+        <v>24.15</v>
+      </c>
+      <c r="E54">
+        <v>24.15</v>
+      </c>
+      <c r="F54" s="41">
+        <v>24.07</v>
+      </c>
+      <c r="G54">
+        <v>24.07</v>
+      </c>
+      <c r="H54">
+        <v>24.07</v>
+      </c>
+      <c r="I54">
+        <v>24.07</v>
+      </c>
+      <c r="J54">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="8">
+        <v>30.9</v>
+      </c>
+      <c r="D56">
+        <v>30.9</v>
+      </c>
+      <c r="E56">
+        <v>30.9</v>
+      </c>
+      <c r="F56">
+        <v>30.9</v>
+      </c>
+      <c r="G56">
+        <v>30.9</v>
+      </c>
+      <c r="H56">
+        <v>30.9</v>
+      </c>
+      <c r="I56">
+        <v>30.9</v>
+      </c>
+      <c r="J56">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="D57">
+        <v>23.99</v>
+      </c>
+      <c r="E57">
+        <v>23.99</v>
+      </c>
+      <c r="F57">
+        <v>23.99</v>
+      </c>
+      <c r="G57">
+        <v>23.99</v>
+      </c>
+      <c r="H57">
+        <v>23.99</v>
+      </c>
+      <c r="I57">
+        <v>23.99</v>
+      </c>
+      <c r="J57">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="8">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="F58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="G58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="H58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I58">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="J58" s="102">
+        <v>19.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="8">
+        <v>21.96</v>
+      </c>
+      <c r="D59">
+        <v>21.96</v>
+      </c>
+      <c r="E59">
+        <v>21.96</v>
+      </c>
+      <c r="F59">
+        <v>21.96</v>
+      </c>
+      <c r="G59">
+        <v>21.96</v>
+      </c>
+      <c r="H59">
+        <v>21.96</v>
+      </c>
+      <c r="I59">
+        <v>21.96</v>
+      </c>
+      <c r="J59">
+        <v>21.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="8">
+        <v>21.85</v>
+      </c>
+      <c r="D61">
+        <v>21.85</v>
+      </c>
+      <c r="E61">
+        <v>21.85</v>
+      </c>
+      <c r="F61">
+        <v>21.85</v>
+      </c>
+      <c r="G61">
+        <v>21.85</v>
+      </c>
+      <c r="H61">
+        <v>21.85</v>
+      </c>
+      <c r="I61" s="66">
+        <v>21.82</v>
+      </c>
+      <c r="J61">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="8">
+        <v>22.49</v>
+      </c>
+      <c r="D62">
+        <v>22.49</v>
+      </c>
+      <c r="E62">
+        <v>22.49</v>
+      </c>
+      <c r="F62">
+        <v>22.49</v>
+      </c>
+      <c r="G62">
+        <v>22.49</v>
+      </c>
+      <c r="H62">
+        <v>22.49</v>
+      </c>
+      <c r="I62" s="67">
+        <v>22.43</v>
+      </c>
+      <c r="J62">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="8">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="D63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="F63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="G63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="H63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I63">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J63">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="8">
+        <v>20.95</v>
+      </c>
+      <c r="D64">
+        <v>20.95</v>
+      </c>
+      <c r="E64">
+        <v>20.95</v>
+      </c>
+      <c r="F64">
+        <v>20.95</v>
+      </c>
+      <c r="G64">
+        <v>20.95</v>
+      </c>
+      <c r="H64">
+        <v>20.95</v>
+      </c>
+      <c r="I64">
+        <v>20.95</v>
+      </c>
+      <c r="J64">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="8">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="D65">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="E65">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="F65" s="42">
+        <v>34.49</v>
+      </c>
+      <c r="G65">
+        <v>34.49</v>
+      </c>
+      <c r="H65">
+        <v>34.49</v>
+      </c>
+      <c r="I65">
+        <v>34.49</v>
+      </c>
+      <c r="J65" s="103">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="8">
+        <v>20.83</v>
+      </c>
+      <c r="D66" s="16">
+        <v>22.99</v>
+      </c>
+      <c r="E66">
+        <v>22.99</v>
+      </c>
+      <c r="F66">
+        <v>22.99</v>
+      </c>
+      <c r="G66">
+        <v>22.99</v>
+      </c>
+      <c r="H66" s="50">
+        <v>20.83</v>
+      </c>
+      <c r="I66">
+        <v>20.83</v>
+      </c>
+      <c r="J66">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="I68">
+        <v>20.49</v>
+      </c>
+      <c r="J68">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="8">
+        <v>20.5</v>
+      </c>
+      <c r="D69">
+        <v>20.5</v>
+      </c>
+      <c r="E69">
+        <v>20.5</v>
+      </c>
+      <c r="F69">
+        <v>20.5</v>
+      </c>
+      <c r="G69">
+        <v>20.5</v>
+      </c>
+      <c r="H69">
+        <v>20.5</v>
+      </c>
+      <c r="I69" s="68">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J69">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="D70">
+        <v>23.99</v>
+      </c>
+      <c r="E70">
+        <v>23.99</v>
+      </c>
+      <c r="F70">
+        <v>23.99</v>
+      </c>
+      <c r="G70">
+        <v>23.99</v>
+      </c>
+      <c r="H70">
+        <v>23.99</v>
+      </c>
+      <c r="I70">
+        <v>23.99</v>
+      </c>
+      <c r="J70">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="8">
+        <v>20.45</v>
+      </c>
+      <c r="D71">
+        <v>20.45</v>
+      </c>
+      <c r="E71">
+        <v>20.45</v>
+      </c>
+      <c r="F71">
+        <v>20.45</v>
+      </c>
+      <c r="G71">
+        <v>20.45</v>
+      </c>
+      <c r="H71">
+        <v>20.45</v>
+      </c>
+      <c r="I71">
+        <v>20.45</v>
+      </c>
+      <c r="J71">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="8">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>19</v>
+      </c>
+      <c r="F72">
+        <v>19</v>
+      </c>
+      <c r="G72">
+        <v>19</v>
+      </c>
+      <c r="H72">
+        <v>19</v>
+      </c>
+      <c r="I72" s="69">
+        <v>18.97</v>
+      </c>
+      <c r="J72">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="8">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D73">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E73">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="F73">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="G73">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="H73">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I73" s="70">
+        <v>18.03</v>
+      </c>
+      <c r="J73">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="8">
+        <v>33.47</v>
+      </c>
+      <c r="D74" s="17">
+        <v>33.44</v>
+      </c>
+      <c r="E74">
+        <v>33.44</v>
+      </c>
+      <c r="F74">
+        <v>33.44</v>
+      </c>
+      <c r="G74">
+        <v>33.44</v>
+      </c>
+      <c r="H74">
+        <v>33.44</v>
+      </c>
+      <c r="I74">
+        <v>33.44</v>
+      </c>
+      <c r="J74" s="104">
+        <v>33.39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="8">
+        <v>33.49</v>
+      </c>
+      <c r="D75">
+        <v>33.49</v>
+      </c>
+      <c r="E75">
+        <v>33.49</v>
+      </c>
+      <c r="F75">
+        <v>33.49</v>
+      </c>
+      <c r="G75">
+        <v>33.49</v>
+      </c>
+      <c r="H75">
+        <v>33.49</v>
+      </c>
+      <c r="I75">
+        <v>33.49</v>
+      </c>
+      <c r="J75" s="105">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="D76">
+        <v>21.9</v>
+      </c>
+      <c r="E76">
+        <v>21.9</v>
+      </c>
+      <c r="F76">
+        <v>21.9</v>
+      </c>
+      <c r="G76">
+        <v>21.9</v>
+      </c>
+      <c r="H76">
+        <v>21.9</v>
+      </c>
+      <c r="I76">
+        <v>21.9</v>
+      </c>
+      <c r="J76">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" s="8">
+        <v>22.05</v>
+      </c>
+      <c r="D77">
+        <v>22.05</v>
+      </c>
+      <c r="E77">
+        <v>22.05</v>
+      </c>
+      <c r="F77">
+        <v>22.05</v>
+      </c>
+      <c r="G77">
+        <v>22.05</v>
+      </c>
+      <c r="H77">
+        <v>22.05</v>
+      </c>
+      <c r="I77">
+        <v>22.05</v>
+      </c>
+      <c r="J77">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="8">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="D78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="G78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="H78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="I78">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="J78">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="D79">
+        <v>20.2</v>
+      </c>
+      <c r="E79">
+        <v>20.2</v>
+      </c>
+      <c r="F79">
+        <v>20.2</v>
+      </c>
+      <c r="G79">
+        <v>20.2</v>
+      </c>
+      <c r="H79">
+        <v>20.2</v>
+      </c>
+      <c r="I79">
+        <v>20.2</v>
+      </c>
+      <c r="J79">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="8">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="D80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="F80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="G80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="H80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I80">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="J80">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="8">
+        <v>32.47</v>
+      </c>
+      <c r="D81" s="18">
+        <v>32.43</v>
+      </c>
+      <c r="E81">
+        <v>32.43</v>
+      </c>
+      <c r="F81">
+        <v>32.43</v>
+      </c>
+      <c r="G81">
+        <v>32.43</v>
+      </c>
+      <c r="H81">
+        <v>32.43</v>
+      </c>
+      <c r="I81">
+        <v>32.43</v>
+      </c>
+      <c r="J81">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C82" s="8">
+        <v>32</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>32</v>
+      </c>
+      <c r="F82">
+        <v>32</v>
+      </c>
+      <c r="G82">
+        <v>32</v>
+      </c>
+      <c r="H82">
+        <v>32</v>
+      </c>
+      <c r="I82">
+        <v>32</v>
+      </c>
+      <c r="J82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="8">
+        <v>21.89</v>
+      </c>
+      <c r="D83">
+        <v>21.89</v>
+      </c>
+      <c r="E83">
+        <v>21.89</v>
+      </c>
+      <c r="F83">
+        <v>21.89</v>
+      </c>
+      <c r="G83">
+        <v>21.89</v>
+      </c>
+      <c r="H83">
+        <v>21.89</v>
+      </c>
+      <c r="I83" s="71">
+        <v>19.95</v>
+      </c>
+      <c r="J83">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="8">
+        <v>20.14</v>
+      </c>
+      <c r="D84" s="19">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I84">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J84">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="8">
+        <v>21.95</v>
+      </c>
+      <c r="D85">
+        <v>21.95</v>
+      </c>
+      <c r="E85">
+        <v>21.95</v>
+      </c>
+      <c r="F85">
+        <v>21.95</v>
+      </c>
+      <c r="G85">
+        <v>21.95</v>
+      </c>
+      <c r="H85">
+        <v>21.95</v>
+      </c>
+      <c r="I85" s="72">
+        <v>20.96</v>
+      </c>
+      <c r="J85">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="8">
+        <v>22.22</v>
+      </c>
+      <c r="D86">
+        <v>22.22</v>
+      </c>
+      <c r="E86">
+        <v>22.22</v>
+      </c>
+      <c r="F86">
+        <v>22.22</v>
+      </c>
+      <c r="G86">
+        <v>22.22</v>
+      </c>
+      <c r="H86">
+        <v>22.22</v>
+      </c>
+      <c r="I86">
+        <v>22.22</v>
+      </c>
+      <c r="J86">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="8">
+        <v>20.58</v>
+      </c>
+      <c r="D87">
+        <v>20.58</v>
+      </c>
+      <c r="E87">
+        <v>20.58</v>
+      </c>
+      <c r="F87">
+        <v>20.58</v>
+      </c>
+      <c r="G87">
+        <v>20.58</v>
+      </c>
+      <c r="H87">
+        <v>20.58</v>
+      </c>
+      <c r="I87">
+        <v>20.58</v>
+      </c>
+      <c r="J87">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="8">
+        <v>31.38</v>
+      </c>
+      <c r="D88">
+        <v>31.38</v>
+      </c>
+      <c r="E88">
+        <v>31.38</v>
+      </c>
+      <c r="F88">
+        <v>31.38</v>
+      </c>
+      <c r="G88">
+        <v>31.38</v>
+      </c>
+      <c r="H88">
+        <v>31.38</v>
+      </c>
+      <c r="I88">
+        <v>31.38</v>
+      </c>
+      <c r="J88">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="8">
+        <v>35.89</v>
+      </c>
+      <c r="D89">
+        <v>35.89</v>
+      </c>
+      <c r="E89">
+        <v>35.89</v>
+      </c>
+      <c r="F89">
+        <v>35.89</v>
+      </c>
+      <c r="G89">
+        <v>35.89</v>
+      </c>
+      <c r="H89">
+        <v>35.89</v>
+      </c>
+      <c r="I89">
+        <v>35.89</v>
+      </c>
+      <c r="J89">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="8">
+        <v>19.98</v>
+      </c>
+      <c r="D90">
+        <v>19.98</v>
+      </c>
+      <c r="E90">
+        <v>19.98</v>
+      </c>
+      <c r="F90">
+        <v>19.98</v>
+      </c>
+      <c r="G90">
+        <v>19.98</v>
+      </c>
+      <c r="H90">
+        <v>19.98</v>
+      </c>
+      <c r="I90">
+        <v>19.98</v>
+      </c>
+      <c r="J90">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" s="8">
+        <v>22.22</v>
+      </c>
+      <c r="D91" s="20">
+        <v>21.13</v>
+      </c>
+      <c r="E91">
+        <v>21.13</v>
+      </c>
+      <c r="F91">
+        <v>21.13</v>
+      </c>
+      <c r="G91">
+        <v>21.13</v>
+      </c>
+      <c r="H91">
+        <v>21.13</v>
+      </c>
+      <c r="I91" s="73">
+        <v>21.1</v>
+      </c>
+      <c r="J91">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="8">
+        <v>19.32</v>
+      </c>
+      <c r="D92">
+        <v>19.32</v>
+      </c>
+      <c r="E92">
+        <v>19.32</v>
+      </c>
+      <c r="F92">
+        <v>19.32</v>
+      </c>
+      <c r="G92">
+        <v>19.32</v>
+      </c>
+      <c r="H92">
+        <v>19.32</v>
+      </c>
+      <c r="I92" s="74">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="J92">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D93" s="21">
+        <v>20.2</v>
+      </c>
+      <c r="E93">
+        <v>20.2</v>
+      </c>
+      <c r="F93">
+        <v>20.2</v>
+      </c>
+      <c r="G93">
+        <v>20.2</v>
+      </c>
+      <c r="H93">
+        <v>20.2</v>
+      </c>
+      <c r="I93">
+        <v>20.2</v>
+      </c>
+      <c r="J93">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="8">
+        <v>20.8</v>
+      </c>
+      <c r="D94">
+        <v>20.8</v>
+      </c>
+      <c r="E94">
+        <v>20.8</v>
+      </c>
+      <c r="F94">
+        <v>20.8</v>
+      </c>
+      <c r="G94">
+        <v>20.8</v>
+      </c>
+      <c r="H94">
+        <v>20.8</v>
+      </c>
+      <c r="I94">
+        <v>20.8</v>
+      </c>
+      <c r="J94" s="106">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="8">
+        <v>24</v>
+      </c>
+      <c r="D95" s="22">
+        <v>23.95</v>
+      </c>
+      <c r="E95">
+        <v>23.95</v>
+      </c>
+      <c r="F95">
+        <v>23.95</v>
+      </c>
+      <c r="G95">
+        <v>23.95</v>
+      </c>
+      <c r="H95">
+        <v>23.95</v>
+      </c>
+      <c r="I95">
+        <v>23.95</v>
+      </c>
+      <c r="J95">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="8">
+        <v>32.89</v>
+      </c>
+      <c r="D96" s="23">
+        <v>31.84</v>
+      </c>
+      <c r="E96">
+        <v>31.84</v>
+      </c>
+      <c r="F96">
+        <v>31.84</v>
+      </c>
+      <c r="G96">
+        <v>31.84</v>
+      </c>
+      <c r="H96">
+        <v>31.84</v>
+      </c>
+      <c r="I96">
+        <v>31.84</v>
+      </c>
+      <c r="J96">
+        <v>31.84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="D97">
+        <v>21.5</v>
+      </c>
+      <c r="E97">
+        <v>21.5</v>
+      </c>
+      <c r="F97">
+        <v>21.5</v>
+      </c>
+      <c r="G97">
+        <v>21.5</v>
+      </c>
+      <c r="H97">
+        <v>21.5</v>
+      </c>
+      <c r="I97">
+        <v>21.5</v>
+      </c>
+      <c r="J97" s="107">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="8">
+        <v>21</v>
+      </c>
+      <c r="D98" s="24">
+        <v>20.99</v>
+      </c>
+      <c r="E98">
+        <v>20.99</v>
+      </c>
+      <c r="F98">
+        <v>20.99</v>
+      </c>
+      <c r="G98">
+        <v>20.99</v>
+      </c>
+      <c r="H98">
+        <v>20.99</v>
+      </c>
+      <c r="I98">
+        <v>20.99</v>
+      </c>
+      <c r="J98">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100">
+        <v>20.34</v>
+      </c>
+      <c r="E100">
+        <v>20.34</v>
+      </c>
+      <c r="F100">
+        <v>20.34</v>
+      </c>
+      <c r="G100">
+        <v>20.34</v>
+      </c>
+      <c r="H100">
+        <v>20.34</v>
+      </c>
+      <c r="I100" s="75">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="J100">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D101">
+        <v>22.99</v>
+      </c>
+      <c r="E101">
+        <v>22.99</v>
+      </c>
+      <c r="F101">
+        <v>22.99</v>
+      </c>
+      <c r="G101">
+        <v>22.99</v>
+      </c>
+      <c r="H101">
+        <v>22.99</v>
+      </c>
+      <c r="I101">
+        <v>22.99</v>
+      </c>
+      <c r="J101">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="8">
+        <v>21.44</v>
+      </c>
+      <c r="D102">
+        <v>21.44</v>
+      </c>
+      <c r="E102">
+        <v>21.44</v>
+      </c>
+      <c r="F102">
+        <v>21.44</v>
+      </c>
+      <c r="G102">
+        <v>21.44</v>
+      </c>
+      <c r="H102">
+        <v>21.44</v>
+      </c>
+      <c r="I102">
+        <v>21.44</v>
+      </c>
+      <c r="J102">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="D103">
+        <v>21.2</v>
+      </c>
+      <c r="E103">
+        <v>21.2</v>
+      </c>
+      <c r="F103">
+        <v>21.2</v>
+      </c>
+      <c r="G103">
+        <v>21.2</v>
+      </c>
+      <c r="H103">
+        <v>21.2</v>
+      </c>
+      <c r="I103">
+        <v>21.2</v>
+      </c>
+      <c r="J103" s="108">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="8">
+        <v>20.2</v>
+      </c>
+      <c r="D104">
+        <v>20.2</v>
+      </c>
+      <c r="E104">
+        <v>20.2</v>
+      </c>
+      <c r="F104">
+        <v>20.2</v>
+      </c>
+      <c r="G104">
+        <v>20.2</v>
+      </c>
+      <c r="H104">
+        <v>20.2</v>
+      </c>
+      <c r="I104">
+        <v>20.2</v>
+      </c>
+      <c r="J104">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="8">
+        <v>20.98</v>
+      </c>
+      <c r="D105">
+        <v>20.98</v>
+      </c>
+      <c r="E105">
+        <v>20.98</v>
+      </c>
+      <c r="F105">
+        <v>20.98</v>
+      </c>
+      <c r="G105">
+        <v>20.98</v>
+      </c>
+      <c r="H105">
+        <v>20.98</v>
+      </c>
+      <c r="I105">
+        <v>20.98</v>
+      </c>
+      <c r="J105" s="109">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="8">
+        <v>31.99</v>
+      </c>
+      <c r="D107">
+        <v>31.99</v>
+      </c>
+      <c r="E107">
+        <v>31.99</v>
+      </c>
+      <c r="F107">
+        <v>31.99</v>
+      </c>
+      <c r="G107">
+        <v>31.99</v>
+      </c>
+      <c r="H107">
+        <v>31.99</v>
+      </c>
+      <c r="I107" s="76">
+        <v>30.99</v>
+      </c>
+      <c r="J107">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="8">
+        <v>30.98</v>
+      </c>
+      <c r="D108">
+        <v>30.98</v>
+      </c>
+      <c r="E108">
+        <v>30.98</v>
+      </c>
+      <c r="F108">
+        <v>30.98</v>
+      </c>
+      <c r="G108">
+        <v>30.98</v>
+      </c>
+      <c r="H108">
+        <v>30.98</v>
+      </c>
+      <c r="I108">
+        <v>30.98</v>
+      </c>
+      <c r="J108">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" s="8">
+        <v>31.49</v>
+      </c>
+      <c r="D110">
+        <v>31.49</v>
+      </c>
+      <c r="E110">
+        <v>31.49</v>
+      </c>
+      <c r="F110">
+        <v>31.49</v>
+      </c>
+      <c r="G110">
+        <v>31.49</v>
+      </c>
+      <c r="H110">
+        <v>31.49</v>
+      </c>
+      <c r="I110">
+        <v>31.49</v>
+      </c>
+      <c r="J110">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="8">
+        <v>32.99</v>
+      </c>
+      <c r="D111">
+        <v>32.99</v>
+      </c>
+      <c r="E111">
+        <v>32.99</v>
+      </c>
+      <c r="F111">
+        <v>32.99</v>
+      </c>
+      <c r="G111">
+        <v>32.99</v>
+      </c>
+      <c r="H111">
+        <v>32.99</v>
+      </c>
+      <c r="I111">
+        <v>32.99</v>
+      </c>
+      <c r="J111">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="8">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="D112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="E112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="F112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="G112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="H112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="I112">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="J112">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" s="8">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="D114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="E114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="F114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="G114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="H114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="I114">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="J114">
+        <v>33.979999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" s="8">
+        <v>21</v>
+      </c>
+      <c r="D115" s="25">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F115" s="43">
+        <v>21</v>
+      </c>
+      <c r="G115">
+        <v>21</v>
+      </c>
+      <c r="H115">
+        <v>21</v>
+      </c>
+      <c r="I115" s="77">
+        <v>20.09</v>
+      </c>
+      <c r="J115">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="8">
+        <v>22.94</v>
+      </c>
+      <c r="D116">
+        <v>22.94</v>
+      </c>
+      <c r="E116">
+        <v>22.94</v>
+      </c>
+      <c r="F116">
+        <v>22.94</v>
+      </c>
+      <c r="G116">
+        <v>22.94</v>
+      </c>
+      <c r="H116">
+        <v>22.94</v>
+      </c>
+      <c r="I116">
+        <v>22.94</v>
+      </c>
+      <c r="J116">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="8">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="D118">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E118">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F118">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="G118">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="H118">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="I118" s="78">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J118">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="D119">
+        <v>23.99</v>
+      </c>
+      <c r="E119">
+        <v>23.99</v>
+      </c>
+      <c r="F119">
+        <v>23.99</v>
+      </c>
+      <c r="G119">
+        <v>23.99</v>
+      </c>
+      <c r="H119">
+        <v>23.99</v>
+      </c>
+      <c r="I119" s="79">
+        <v>19.98</v>
+      </c>
+      <c r="J119">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="8">
+        <v>30.9</v>
+      </c>
+      <c r="D121">
+        <v>30.9</v>
+      </c>
+      <c r="E121">
+        <v>30.9</v>
+      </c>
+      <c r="F121">
+        <v>30.9</v>
+      </c>
+      <c r="G121">
+        <v>30.9</v>
+      </c>
+      <c r="H121">
+        <v>30.9</v>
+      </c>
+      <c r="I121">
+        <v>30.9</v>
+      </c>
+      <c r="J121">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="8">
+        <v>30.86</v>
+      </c>
+      <c r="D122" s="26">
+        <v>30.8</v>
+      </c>
+      <c r="E122">
+        <v>30.8</v>
+      </c>
+      <c r="F122">
+        <v>30.8</v>
+      </c>
+      <c r="I122">
+        <v>30.79</v>
+      </c>
+      <c r="J122">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="8">
+        <v>24.14</v>
+      </c>
+      <c r="D123">
+        <v>24.14</v>
+      </c>
+      <c r="E123">
+        <v>24.14</v>
+      </c>
+      <c r="F123">
+        <v>24.14</v>
+      </c>
+      <c r="G123">
+        <v>24.14</v>
+      </c>
+      <c r="H123">
+        <v>24.14</v>
+      </c>
+      <c r="I123" s="80">
+        <v>24.1</v>
+      </c>
+      <c r="J123" s="110">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="8">
+        <v>24.23</v>
+      </c>
+      <c r="D125" s="27">
+        <v>24</v>
+      </c>
+      <c r="E125">
+        <v>24</v>
+      </c>
+      <c r="F125">
+        <v>24</v>
+      </c>
+      <c r="G125">
+        <v>24</v>
+      </c>
+      <c r="H125">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>24</v>
+      </c>
+      <c r="J125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="8">
+        <v>20.89</v>
+      </c>
+      <c r="D126">
+        <v>20.89</v>
+      </c>
+      <c r="E126">
+        <v>20.89</v>
+      </c>
+      <c r="F126">
+        <v>20.89</v>
+      </c>
+      <c r="G126">
+        <v>20.89</v>
+      </c>
+      <c r="H126">
+        <v>20.89</v>
+      </c>
+      <c r="I126">
+        <v>20.89</v>
+      </c>
+      <c r="J126">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="8">
+        <v>30.41</v>
+      </c>
+      <c r="D127">
+        <v>30.41</v>
+      </c>
+      <c r="E127">
+        <v>30.41</v>
+      </c>
+      <c r="F127">
+        <v>30.41</v>
+      </c>
+      <c r="G127">
+        <v>30.41</v>
+      </c>
+      <c r="H127">
+        <v>30.41</v>
+      </c>
+      <c r="I127">
+        <v>30.41</v>
+      </c>
+      <c r="J127">
+        <v>30.41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" s="8">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D128">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="E128">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="F128" s="44">
+        <v>33.24</v>
+      </c>
+      <c r="G128">
+        <v>33.24</v>
+      </c>
+      <c r="H128">
+        <v>33.24</v>
+      </c>
+      <c r="I128">
+        <v>33.24</v>
+      </c>
+      <c r="J128">
+        <v>33.24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="8">
+        <v>20.98</v>
+      </c>
+      <c r="D129">
+        <v>20.98</v>
+      </c>
+      <c r="E129">
+        <v>20.98</v>
+      </c>
+      <c r="F129">
+        <v>20.98</v>
+      </c>
+      <c r="G129">
+        <v>20.98</v>
+      </c>
+      <c r="H129">
+        <v>20.98</v>
+      </c>
+      <c r="I129">
+        <v>20.98</v>
+      </c>
+      <c r="J129">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C130" s="8">
+        <v>20.89</v>
+      </c>
+      <c r="D130" s="28">
+        <v>20.82</v>
+      </c>
+      <c r="E130">
+        <v>20.82</v>
+      </c>
+      <c r="F130">
+        <v>20.82</v>
+      </c>
+      <c r="G130">
+        <v>20.82</v>
+      </c>
+      <c r="H130">
+        <v>20.82</v>
+      </c>
+      <c r="I130">
+        <v>20.82</v>
+      </c>
+      <c r="J130">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="8">
+        <v>32.99</v>
+      </c>
+      <c r="D131" s="29">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E131">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F131">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G131">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H131">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I131">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J131" s="111">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" s="8">
+        <v>33.99</v>
+      </c>
+      <c r="D133" s="30">
+        <v>30.8</v>
+      </c>
+      <c r="E133">
+        <v>30.8</v>
+      </c>
+      <c r="F133">
+        <v>30.8</v>
+      </c>
+      <c r="G133">
+        <v>30.8</v>
+      </c>
+      <c r="H133">
+        <v>30.8</v>
+      </c>
+      <c r="I133">
+        <v>30.8</v>
+      </c>
+      <c r="J133">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C135" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D135">
+        <v>22.99</v>
+      </c>
+      <c r="E135">
+        <v>22.99</v>
+      </c>
+      <c r="F135">
+        <v>22.99</v>
+      </c>
+      <c r="G135">
+        <v>22.99</v>
+      </c>
+      <c r="H135">
+        <v>22.99</v>
+      </c>
+      <c r="I135">
+        <v>22.99</v>
+      </c>
+      <c r="J135">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" s="8">
+        <v>31.9</v>
+      </c>
+      <c r="D136" s="31">
+        <v>30.89</v>
+      </c>
+      <c r="E136">
+        <v>30.89</v>
+      </c>
+      <c r="F136">
+        <v>30.89</v>
+      </c>
+      <c r="G136">
+        <v>30.89</v>
+      </c>
+      <c r="H136">
+        <v>30.89</v>
+      </c>
+      <c r="I136" s="81">
+        <v>32</v>
+      </c>
+      <c r="J136">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" s="8">
+        <v>20.64</v>
+      </c>
+      <c r="D137">
+        <v>20.64</v>
+      </c>
+      <c r="E137">
+        <v>20.64</v>
+      </c>
+      <c r="F137">
+        <v>20.64</v>
+      </c>
+      <c r="G137">
+        <v>20.64</v>
+      </c>
+      <c r="H137">
+        <v>20.64</v>
+      </c>
+      <c r="I137">
+        <v>20.64</v>
+      </c>
+      <c r="J137">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="8">
+        <v>76.75</v>
+      </c>
+      <c r="D139">
+        <v>76.75</v>
+      </c>
+      <c r="E139">
+        <v>76.75</v>
+      </c>
+      <c r="F139">
+        <v>76.75</v>
+      </c>
+      <c r="G139">
+        <v>76.75</v>
+      </c>
+      <c r="H139">
+        <v>76.75</v>
+      </c>
+      <c r="I139" s="82">
+        <v>63.62</v>
+      </c>
+      <c r="J139">
+        <v>63.62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" s="8">
+        <v>31.3</v>
+      </c>
+      <c r="D140" s="32">
+        <v>30.99</v>
+      </c>
+      <c r="E140">
+        <v>30.99</v>
+      </c>
+      <c r="F140">
+        <v>30.99</v>
+      </c>
+      <c r="G140">
+        <v>30.99</v>
+      </c>
+      <c r="H140">
+        <v>30.99</v>
+      </c>
+      <c r="I140">
+        <v>30.99</v>
+      </c>
+      <c r="J140">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" s="8">
+        <v>35.9</v>
+      </c>
+      <c r="D141">
+        <v>35.9</v>
+      </c>
+      <c r="E141">
+        <v>35.9</v>
+      </c>
+      <c r="F141">
+        <v>35.9</v>
+      </c>
+      <c r="G141">
+        <v>35.9</v>
+      </c>
+      <c r="H141">
+        <v>35.9</v>
+      </c>
+      <c r="I141">
+        <v>35.9</v>
+      </c>
+      <c r="J141">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C142" s="8">
+        <v>27</v>
+      </c>
+      <c r="D142">
+        <v>27</v>
+      </c>
+      <c r="E142">
+        <v>27</v>
+      </c>
+      <c r="F142">
+        <v>27</v>
+      </c>
+      <c r="G142">
+        <v>27</v>
+      </c>
+      <c r="H142">
+        <v>27</v>
+      </c>
+      <c r="I142">
+        <v>27</v>
+      </c>
+      <c r="J142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" s="8">
+        <v>22.06</v>
+      </c>
+      <c r="D143">
+        <v>22.06</v>
+      </c>
+      <c r="E143">
+        <v>22.06</v>
+      </c>
+      <c r="F143">
+        <v>22.06</v>
+      </c>
+      <c r="G143">
+        <v>22.06</v>
+      </c>
+      <c r="H143">
+        <v>22.06</v>
+      </c>
+      <c r="I143">
+        <v>22.06</v>
+      </c>
+      <c r="J143" s="112">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="8">
+        <v>40.99</v>
+      </c>
+      <c r="D144">
+        <v>40.99</v>
+      </c>
+      <c r="E144">
+        <v>40.99</v>
+      </c>
+      <c r="F144">
+        <v>40.99</v>
+      </c>
+      <c r="G144">
+        <v>40.99</v>
+      </c>
+      <c r="H144">
+        <v>40.99</v>
+      </c>
+      <c r="I144" s="83">
+        <v>39.99</v>
+      </c>
+      <c r="J144">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="8">
+        <v>31.94</v>
+      </c>
+      <c r="D145">
+        <v>31.94</v>
+      </c>
+      <c r="E145">
+        <v>31.94</v>
+      </c>
+      <c r="F145" s="45">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G145">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H145">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I145" s="84">
+        <v>30.91</v>
+      </c>
+      <c r="J145" s="113">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="8">
+        <v>23.21</v>
+      </c>
+      <c r="D146">
+        <v>23.21</v>
+      </c>
+      <c r="E146">
+        <v>23.21</v>
+      </c>
+      <c r="F146">
+        <v>23.21</v>
+      </c>
+      <c r="G146">
+        <v>23.21</v>
+      </c>
+      <c r="H146">
+        <v>23.21</v>
+      </c>
+      <c r="I146">
+        <v>23.21</v>
+      </c>
+      <c r="J146">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="8">
+        <v>31.31</v>
+      </c>
+      <c r="D147">
+        <v>31.31</v>
+      </c>
+      <c r="E147">
+        <v>31.31</v>
+      </c>
+      <c r="F147">
+        <v>31.31</v>
+      </c>
+      <c r="G147">
+        <v>31.31</v>
+      </c>
+      <c r="H147">
+        <v>31.31</v>
+      </c>
+      <c r="I147">
+        <v>31.31</v>
+      </c>
+      <c r="J147" s="114">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" s="8">
+        <v>33.22</v>
+      </c>
+      <c r="D148">
+        <v>33.22</v>
+      </c>
+      <c r="E148">
+        <v>33.22</v>
+      </c>
+      <c r="F148">
+        <v>33.22</v>
+      </c>
+      <c r="G148">
+        <v>33.22</v>
+      </c>
+      <c r="H148">
+        <v>33.22</v>
+      </c>
+      <c r="I148">
+        <v>33.22</v>
+      </c>
+      <c r="J148" s="115">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="8">
+        <v>22.99</v>
+      </c>
+      <c r="D149">
+        <v>22.99</v>
+      </c>
+      <c r="E149">
+        <v>22.99</v>
+      </c>
+      <c r="F149">
+        <v>22.99</v>
+      </c>
+      <c r="G149">
+        <v>22.99</v>
+      </c>
+      <c r="H149">
+        <v>22.99</v>
+      </c>
+      <c r="I149">
+        <v>22.99</v>
+      </c>
+      <c r="J149" s="116">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C151" s="8">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D151">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E151">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F151">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G151">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H151">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I151" s="85">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J151">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="8">
+        <v>36.49</v>
+      </c>
+      <c r="D152">
+        <v>36.49</v>
+      </c>
+      <c r="E152">
+        <v>36.49</v>
+      </c>
+      <c r="F152">
+        <v>36.49</v>
+      </c>
+      <c r="G152">
+        <v>36.49</v>
+      </c>
+      <c r="H152">
+        <v>36.49</v>
+      </c>
+      <c r="I152" s="86">
+        <v>36.28</v>
+      </c>
+      <c r="J152">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="8">
+        <v>36.35</v>
+      </c>
+      <c r="D153">
+        <v>36.35</v>
+      </c>
+      <c r="E153">
+        <v>36.35</v>
+      </c>
+      <c r="F153">
+        <v>36.35</v>
+      </c>
+      <c r="G153">
+        <v>36.35</v>
+      </c>
+      <c r="H153">
+        <v>36.35</v>
+      </c>
+      <c r="I153">
+        <v>36.35</v>
+      </c>
+      <c r="J153">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C154" s="8">
+        <v>33.69</v>
+      </c>
+      <c r="D154">
+        <v>33.69</v>
+      </c>
+      <c r="E154">
+        <v>33.69</v>
+      </c>
+      <c r="F154">
+        <v>33.69</v>
+      </c>
+      <c r="G154">
+        <v>33.69</v>
+      </c>
+      <c r="H154">
+        <v>33.69</v>
+      </c>
+      <c r="I154" s="87">
+        <v>33.68</v>
+      </c>
+      <c r="J154" s="117">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="8">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="D157" s="33">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="E157">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="F157">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="G157">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="H157">
+        <v>39.270000000000003</v>
+      </c>
+      <c r="I157" s="88">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="J157">
+        <v>39.229999999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C158" s="8">
+        <v>39.99</v>
+      </c>
+      <c r="D158">
+        <v>39.99</v>
+      </c>
+      <c r="E158">
+        <v>39.99</v>
+      </c>
+      <c r="F158">
+        <v>39.99</v>
+      </c>
+      <c r="G158">
+        <v>39.99</v>
+      </c>
+      <c r="H158">
+        <v>39.99</v>
+      </c>
+      <c r="I158" s="89">
+        <v>39.92</v>
+      </c>
+      <c r="J158">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="8">
+        <v>35.99</v>
+      </c>
+      <c r="D159">
+        <v>35.99</v>
+      </c>
+      <c r="E159">
+        <v>35.99</v>
+      </c>
+      <c r="F159">
+        <v>35.99</v>
+      </c>
+      <c r="G159">
+        <v>35.99</v>
+      </c>
+      <c r="H159">
+        <v>35.99</v>
+      </c>
+      <c r="I159">
+        <v>35.99</v>
+      </c>
+      <c r="J159" s="118">
+        <v>35.47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="8">
+        <v>31.28</v>
+      </c>
+      <c r="D160" s="34">
+        <v>31.23</v>
+      </c>
+      <c r="E160">
+        <v>31.23</v>
+      </c>
+      <c r="F160">
+        <v>31.23</v>
+      </c>
+      <c r="G160">
+        <v>31.23</v>
+      </c>
+      <c r="H160" s="51">
+        <v>35.99</v>
+      </c>
+      <c r="I160">
+        <v>35.99</v>
+      </c>
+      <c r="J160" s="119">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="8">
+        <v>21.12</v>
+      </c>
+      <c r="D161">
+        <v>21.12</v>
+      </c>
+      <c r="E161">
+        <v>21.12</v>
+      </c>
+      <c r="F161">
+        <v>21.12</v>
+      </c>
+      <c r="G161">
+        <v>21.12</v>
+      </c>
+      <c r="H161" s="52">
+        <v>23.99</v>
+      </c>
+      <c r="I161">
+        <v>23.99</v>
+      </c>
+      <c r="J161" s="120">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="8">
+        <v>20.99</v>
+      </c>
+      <c r="D162">
+        <v>20.99</v>
+      </c>
+      <c r="E162">
+        <v>20.99</v>
+      </c>
+      <c r="F162">
+        <v>20.99</v>
+      </c>
+      <c r="G162">
+        <v>20.99</v>
+      </c>
+      <c r="H162">
+        <v>20.99</v>
+      </c>
+      <c r="I162">
+        <v>20.99</v>
+      </c>
+      <c r="J162">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="8">
+        <v>30.29</v>
+      </c>
+      <c r="D163">
+        <v>30.29</v>
+      </c>
+      <c r="E163">
+        <v>30.29</v>
+      </c>
+      <c r="F163">
+        <v>30.29</v>
+      </c>
+      <c r="G163">
+        <v>30.29</v>
+      </c>
+      <c r="H163">
+        <v>30.29</v>
+      </c>
+      <c r="I163">
+        <v>30.29</v>
+      </c>
+      <c r="J163">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="8">
+        <v>30.98</v>
+      </c>
+      <c r="D165" s="35">
+        <v>30</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>30</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>30</v>
+      </c>
+      <c r="J165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C166" s="8">
+        <v>31.27</v>
+      </c>
+      <c r="D166">
+        <v>31.27</v>
+      </c>
+      <c r="E166">
+        <v>31.27</v>
+      </c>
+      <c r="F166">
+        <v>31.27</v>
+      </c>
+      <c r="G166">
+        <v>31.27</v>
+      </c>
+      <c r="H166">
+        <v>31.27</v>
+      </c>
+      <c r="I166">
+        <v>31.27</v>
+      </c>
+      <c r="J166">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C167" s="8">
+        <v>21.03</v>
+      </c>
+      <c r="D167">
+        <v>21.03</v>
+      </c>
+      <c r="E167">
+        <v>21.03</v>
+      </c>
+      <c r="F167">
+        <v>21.03</v>
+      </c>
+      <c r="G167">
+        <v>21.03</v>
+      </c>
+      <c r="H167">
+        <v>21.03</v>
+      </c>
+      <c r="I167">
+        <v>21.03</v>
+      </c>
+      <c r="J167">
+        <v>21.03</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="8">
+        <v>30.33</v>
+      </c>
+      <c r="D168">
+        <v>30.33</v>
+      </c>
+      <c r="E168">
+        <v>30.33</v>
+      </c>
+      <c r="F168">
+        <v>30.33</v>
+      </c>
+      <c r="G168" s="48">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H168">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I168" s="90">
+        <v>30.29</v>
+      </c>
+      <c r="J168">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>202</v>
+      </c>
+      <c r="C170" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="D170">
+        <v>23.2</v>
+      </c>
+      <c r="E170">
+        <v>23.2</v>
+      </c>
+      <c r="F170">
+        <v>23.2</v>
+      </c>
+      <c r="G170">
+        <v>23.2</v>
+      </c>
+      <c r="H170">
+        <v>23.2</v>
+      </c>
+      <c r="I170">
+        <v>23.2</v>
+      </c>
+      <c r="J170" s="121">
+        <v>23.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>202</v>
+      </c>
+      <c r="C171" s="8">
+        <v>32.99</v>
+      </c>
+      <c r="D171">
+        <v>32.99</v>
+      </c>
+      <c r="E171">
+        <v>32.99</v>
+      </c>
+      <c r="F171">
+        <v>32.99</v>
+      </c>
+      <c r="G171">
+        <v>32.99</v>
+      </c>
+      <c r="H171">
+        <v>32.99</v>
+      </c>
+      <c r="I171" s="91">
+        <v>31.16</v>
+      </c>
+      <c r="J171">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="C172" s="8">
+        <v>31.24</v>
+      </c>
+      <c r="D172" s="36">
+        <v>30.98</v>
+      </c>
+      <c r="E172">
+        <v>30.98</v>
+      </c>
+      <c r="F172">
+        <v>30.98</v>
+      </c>
+      <c r="G172">
+        <v>30.98</v>
+      </c>
+      <c r="H172">
+        <v>30.98</v>
+      </c>
+      <c r="I172">
+        <v>30.98</v>
+      </c>
+      <c r="J172">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+        <v>202</v>
+      </c>
+      <c r="C173" s="8">
+        <v>21.44</v>
+      </c>
+      <c r="D173">
+        <v>21.44</v>
+      </c>
+      <c r="E173">
+        <v>21.44</v>
+      </c>
+      <c r="F173">
+        <v>21.44</v>
+      </c>
+      <c r="G173">
+        <v>21.44</v>
+      </c>
+      <c r="H173">
+        <v>21.44</v>
+      </c>
+      <c r="I173">
+        <v>21.44</v>
+      </c>
+      <c r="J173">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>202</v>
+      </c>
+      <c r="C174" s="8">
+        <v>21.95</v>
+      </c>
+      <c r="D174">
+        <v>21.95</v>
+      </c>
+      <c r="E174">
+        <v>21.95</v>
+      </c>
+      <c r="F174">
+        <v>21.95</v>
+      </c>
+      <c r="G174">
+        <v>21.95</v>
+      </c>
+      <c r="H174">
+        <v>21.95</v>
+      </c>
+      <c r="I174" s="92">
+        <v>22.74</v>
+      </c>
+      <c r="J174">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>202</v>
+      </c>
+      <c r="C175" s="8">
+        <v>23.99</v>
+      </c>
+      <c r="D175">
+        <v>23.99</v>
+      </c>
+      <c r="E175">
+        <v>23.99</v>
+      </c>
+      <c r="F175">
+        <v>23.99</v>
+      </c>
+      <c r="G175">
+        <v>23.99</v>
+      </c>
+      <c r="H175">
+        <v>23.99</v>
+      </c>
+      <c r="I175">
+        <v>23.99</v>
+      </c>
+      <c r="J175">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="C176" s="8">
+        <v>32.15</v>
+      </c>
+      <c r="D176">
+        <v>32.15</v>
+      </c>
+      <c r="E176">
+        <v>32.15</v>
+      </c>
+      <c r="F176">
+        <v>32.15</v>
+      </c>
+      <c r="G176">
+        <v>32.15</v>
+      </c>
+      <c r="H176">
+        <v>32.15</v>
+      </c>
+      <c r="I176">
+        <v>32.15</v>
+      </c>
+      <c r="J176">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>202</v>
+      </c>
+      <c r="C177" s="8">
+        <v>32.24</v>
+      </c>
+      <c r="D177">
+        <v>32.24</v>
+      </c>
+      <c r="E177">
+        <v>32.24</v>
+      </c>
+      <c r="F177">
+        <v>32.24</v>
+      </c>
+      <c r="G177">
+        <v>32.24</v>
+      </c>
+      <c r="H177">
+        <v>32.24</v>
+      </c>
+      <c r="I177">
+        <v>32.24</v>
+      </c>
+      <c r="J177" s="122">
+        <v>32.119999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>202</v>
+      </c>
+      <c r="C178" s="8">
+        <v>21.46</v>
+      </c>
+      <c r="D178">
+        <v>21.46</v>
+      </c>
+      <c r="E178">
+        <v>21.46</v>
+      </c>
+      <c r="F178">
+        <v>21.46</v>
+      </c>
+      <c r="G178">
+        <v>21.46</v>
+      </c>
+      <c r="H178">
+        <v>21.46</v>
+      </c>
+      <c r="I178" s="93">
+        <v>21.43</v>
+      </c>
+      <c r="J178">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="C179" s="8">
+        <v>31.2</v>
+      </c>
+      <c r="D179">
+        <v>31.2</v>
+      </c>
+      <c r="E179">
+        <v>31.2</v>
+      </c>
+      <c r="F179">
+        <v>31.2</v>
+      </c>
+      <c r="G179">
+        <v>31.2</v>
+      </c>
+      <c r="H179">
+        <v>31.2</v>
+      </c>
+      <c r="I179">
+        <v>31.2</v>
+      </c>
+      <c r="J179">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>202</v>
+      </c>
+      <c r="C180" s="8">
+        <v>42.38</v>
+      </c>
+      <c r="D180">
+        <v>42.38</v>
+      </c>
+      <c r="E180">
+        <v>42.38</v>
+      </c>
+      <c r="F180">
+        <v>42.38</v>
+      </c>
+      <c r="G180">
+        <v>42.38</v>
+      </c>
+      <c r="H180">
+        <v>42.38</v>
+      </c>
+      <c r="I180" s="94">
+        <v>42.37</v>
+      </c>
+      <c r="J180">
+        <v>42.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="C181" s="8">
+        <v>34.4</v>
+      </c>
+      <c r="D181">
+        <v>34.4</v>
+      </c>
+      <c r="E181">
+        <v>34.4</v>
+      </c>
+      <c r="F181">
+        <v>34.4</v>
+      </c>
+      <c r="G181">
+        <v>34.4</v>
+      </c>
+      <c r="H181">
+        <v>34.4</v>
+      </c>
+      <c r="I181">
+        <v>34.4</v>
+      </c>
+      <c r="J181">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="C182" s="8">
+        <v>22.18</v>
+      </c>
+      <c r="D182" s="37">
+        <v>21.44</v>
+      </c>
+      <c r="E182">
+        <v>21.44</v>
+      </c>
+      <c r="F182">
+        <v>21.44</v>
+      </c>
+      <c r="G182">
+        <v>21.44</v>
+      </c>
+      <c r="H182">
+        <v>21.44</v>
+      </c>
+      <c r="I182">
+        <v>21.44</v>
+      </c>
+      <c r="J182">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>202</v>
+      </c>
+      <c r="C183" s="8">
+        <v>31.99</v>
+      </c>
+      <c r="D183">
+        <v>31.99</v>
+      </c>
+      <c r="E183">
+        <v>31.99</v>
+      </c>
+      <c r="F183">
+        <v>31.99</v>
+      </c>
+      <c r="G183">
+        <v>31.99</v>
+      </c>
+      <c r="H183">
+        <v>31.99</v>
+      </c>
+      <c r="I183" s="95">
+        <v>31.88</v>
+      </c>
+      <c r="J183">
+        <v>31.88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+        <v>202</v>
+      </c>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+        <v>202</v>
+      </c>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
+      </c>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>202</v>
+      </c>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>202</v>
+      </c>
+      <c r="C189" s="8">
+        <v>30.98</v>
+      </c>
+      <c r="D189">
+        <v>30.98</v>
+      </c>
+      <c r="E189">
+        <v>30.98</v>
+      </c>
+      <c r="F189">
+        <v>30.98</v>
+      </c>
+      <c r="G189">
+        <v>30.98</v>
+      </c>
+      <c r="H189">
+        <v>30.98</v>
+      </c>
+      <c r="I189">
+        <v>30.98</v>
+      </c>
+      <c r="J189">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
+      </c>
+      <c r="C190" s="8">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="D190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="F190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="G190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="H190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I190">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J190">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="C191" s="8">
+        <v>32.32</v>
+      </c>
+      <c r="D191">
+        <v>32.32</v>
+      </c>
+      <c r="E191">
+        <v>32.32</v>
+      </c>
+      <c r="F191">
+        <v>32.32</v>
+      </c>
+      <c r="G191">
+        <v>32.32</v>
+      </c>
+      <c r="H191">
+        <v>32.32</v>
+      </c>
+      <c r="I191">
+        <v>32.32</v>
+      </c>
+      <c r="J191">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
+      </c>
+      <c r="C192" s="8">
+        <v>30.99</v>
+      </c>
+      <c r="D192">
+        <v>30.99</v>
+      </c>
+      <c r="E192">
+        <v>30.99</v>
+      </c>
+      <c r="F192">
+        <v>30.99</v>
+      </c>
+      <c r="G192">
+        <v>30.99</v>
+      </c>
+      <c r="H192">
+        <v>30.99</v>
+      </c>
+      <c r="I192">
+        <v>30.99</v>
+      </c>
+      <c r="J192">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+        <v>202</v>
+      </c>
+      <c r="C193" s="8">
+        <v>22.82</v>
+      </c>
+      <c r="D193" s="38">
+        <v>22.7</v>
+      </c>
+      <c r="E193">
+        <v>22.7</v>
+      </c>
+      <c r="F193">
+        <v>22.7</v>
+      </c>
+      <c r="G193">
+        <v>22.7</v>
+      </c>
+      <c r="H193">
+        <v>22.7</v>
+      </c>
+      <c r="I193">
+        <v>22.7</v>
+      </c>
+      <c r="J193">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>202</v>
+      </c>
+      <c r="C194" s="8">
+        <v>30.3</v>
+      </c>
+      <c r="D194">
+        <v>30.3</v>
+      </c>
+      <c r="E194">
+        <v>30.3</v>
+      </c>
+      <c r="F194">
+        <v>30.3</v>
+      </c>
+      <c r="G194">
+        <v>30.3</v>
+      </c>
+      <c r="H194">
+        <v>30.3</v>
+      </c>
+      <c r="I194" s="96">
+        <v>30.29</v>
+      </c>
+      <c r="J194">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
+      </c>
+      <c r="C195" s="8">
+        <v>21.21</v>
+      </c>
+      <c r="D195" s="39">
+        <v>22.49</v>
+      </c>
+      <c r="E195">
+        <v>22.49</v>
+      </c>
+      <c r="F195">
+        <v>22.49</v>
+      </c>
+      <c r="G195">
+        <v>22.49</v>
+      </c>
+      <c r="H195">
+        <v>22.49</v>
+      </c>
+      <c r="I195" s="97">
+        <v>21.19</v>
+      </c>
+      <c r="J195">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="C197" s="8">
+        <v>33.32</v>
+      </c>
+      <c r="D197">
+        <v>33.32</v>
+      </c>
+      <c r="E197">
+        <v>33.32</v>
+      </c>
+      <c r="F197">
+        <v>33.32</v>
+      </c>
+      <c r="G197">
+        <v>33.32</v>
+      </c>
+      <c r="H197">
+        <v>33.32</v>
+      </c>
+      <c r="I197">
+        <v>33.32</v>
+      </c>
+      <c r="J197">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
+      </c>
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
+      </c>
+      <c r="C199" s="8">
+        <v>30.3</v>
+      </c>
+      <c r="D199">
+        <v>30.3</v>
+      </c>
+      <c r="E199">
+        <v>30.3</v>
+      </c>
+      <c r="F199">
+        <v>30.3</v>
+      </c>
+      <c r="G199">
+        <v>30.3</v>
+      </c>
+      <c r="H199">
+        <v>30.3</v>
+      </c>
+      <c r="I199">
+        <v>30.3</v>
+      </c>
+      <c r="J199">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="123" t="s">
+        <v>210</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>